--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_18_9.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_18_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1540468.190251464</v>
+        <v>-1542949.110076922</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>355.8136950763541</v>
+        <v>355.8136950763542</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>338.3527451838812</v>
       </c>
       <c r="D11" t="n">
-        <v>327.7628950335564</v>
+        <v>327.7628950335566</v>
       </c>
       <c r="E11" t="n">
-        <v>355.0102234851353</v>
+        <v>355.0102234851354</v>
       </c>
       <c r="F11" t="n">
-        <v>379.9558991545849</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>384.0015790663269</v>
+        <v>384.0015790663271</v>
       </c>
       <c r="H11" t="n">
-        <v>267.6876178001939</v>
+        <v>267.6876178001941</v>
       </c>
       <c r="I11" t="n">
-        <v>14.65678318579947</v>
+        <v>12.40480219418113</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.26761520104935</v>
+        <v>82.26761520104941</v>
       </c>
       <c r="T11" t="n">
         <v>176.9978235524937</v>
       </c>
       <c r="U11" t="n">
-        <v>224.0750253717755</v>
+        <v>224.0750253717756</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1433,10 +1433,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>298.9558191290217</v>
+        <v>342.8109540913426</v>
       </c>
       <c r="Y11" t="n">
-        <v>359.3177920689271</v>
+        <v>359.3177920689272</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,10 +1494,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>152.9118335948109</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>140.3266745115014</v>
       </c>
       <c r="D13" t="n">
-        <v>121.6953264310859</v>
+        <v>121.695326431086</v>
       </c>
       <c r="E13" t="n">
-        <v>119.5138160594427</v>
+        <v>119.5138160594428</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>139.1056616719017</v>
+        <v>33.15606961341863</v>
       </c>
       <c r="H13" t="n">
-        <v>117.8348683271943</v>
+        <v>117.8348683271944</v>
       </c>
       <c r="I13" t="n">
-        <v>69.43227382271161</v>
+        <v>69.43227382271169</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>62.01200608292085</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>162.8488787443154</v>
+        <v>162.8488787443155</v>
       </c>
       <c r="T13" t="n">
-        <v>192.6288026890427</v>
+        <v>192.6288026890428</v>
       </c>
       <c r="U13" t="n">
-        <v>192.9040948184272</v>
+        <v>259.2916916184865</v>
       </c>
       <c r="V13" t="n">
-        <v>225.2174967367015</v>
+        <v>225.2174967367016</v>
       </c>
       <c r="W13" t="n">
-        <v>259.6028517494645</v>
+        <v>259.6028517494646</v>
       </c>
       <c r="X13" t="n">
-        <v>198.7895088019107</v>
+        <v>198.7895088019108</v>
       </c>
       <c r="Y13" t="n">
-        <v>191.6645067649683</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,19 +1604,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>247.5280368694927</v>
+        <v>355.8136950763542</v>
       </c>
       <c r="C14" t="n">
         <v>338.3527451838812</v>
       </c>
       <c r="D14" t="n">
-        <v>327.7628950335566</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>355.0102234851354</v>
       </c>
       <c r="F14" t="n">
-        <v>379.955899154585</v>
+        <v>3.190091911651702</v>
       </c>
       <c r="G14" t="n">
         <v>384.0015790663271</v>
@@ -1625,7 +1625,7 @@
         <v>267.6876178001941</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>14.65678318579955</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.26761520104944</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>176.9978235524937</v>
       </c>
       <c r="U14" t="n">
         <v>224.0750253717756</v>
@@ -1667,7 +1667,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>322.3208221302866</v>
       </c>
       <c r="X14" t="n">
         <v>342.8109540913426</v>
@@ -1771,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>119.5138160594428</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,10 +1780,10 @@
         <v>139.1056616719018</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>117.8348683271944</v>
       </c>
       <c r="I16" t="n">
-        <v>11.34836975753942</v>
+        <v>69.43227382271169</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>62.01200608292093</v>
       </c>
       <c r="S16" t="n">
         <v>162.8488787443155</v>
@@ -1828,7 +1828,7 @@
         <v>259.6028517494646</v>
       </c>
       <c r="X16" t="n">
-        <v>198.7895088019108</v>
+        <v>80.37254638606595</v>
       </c>
       <c r="Y16" t="n">
         <v>191.6645067649684</v>
@@ -1844,22 +1844,22 @@
         <v>308.8385584577616</v>
       </c>
       <c r="C17" t="n">
-        <v>291.3776085652885</v>
+        <v>212.1824655163015</v>
       </c>
       <c r="D17" t="n">
-        <v>280.7877584149639</v>
+        <v>280.787758414964</v>
       </c>
       <c r="E17" t="n">
         <v>308.0350868665428</v>
       </c>
       <c r="F17" t="n">
-        <v>332.9807625359924</v>
+        <v>332.9807625359925</v>
       </c>
       <c r="G17" t="n">
-        <v>337.0264424477344</v>
+        <v>337.0264424477345</v>
       </c>
       <c r="H17" t="n">
-        <v>220.7124811816014</v>
+        <v>220.7124811816015</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>35.29247858245691</v>
       </c>
       <c r="T17" t="n">
-        <v>86.12002246737015</v>
+        <v>130.0226869339012</v>
       </c>
       <c r="U17" t="n">
         <v>177.099888753183</v>
@@ -1904,10 +1904,10 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>275.345685511694</v>
+        <v>275.3456855116941</v>
       </c>
       <c r="X17" t="n">
-        <v>295.83581747275</v>
+        <v>295.8358174727501</v>
       </c>
       <c r="Y17" t="n">
         <v>312.3426554503346</v>
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>105.9366969762183</v>
+        <v>105.9366969762184</v>
       </c>
       <c r="C19" t="n">
-        <v>93.35153789290881</v>
+        <v>93.35153789290889</v>
       </c>
       <c r="D19" t="n">
-        <v>74.72018981249333</v>
+        <v>74.72018981249342</v>
       </c>
       <c r="E19" t="n">
-        <v>72.53867944085015</v>
+        <v>72.53867944085023</v>
       </c>
       <c r="F19" t="n">
-        <v>71.52576481721222</v>
+        <v>71.52576481721231</v>
       </c>
       <c r="G19" t="n">
-        <v>92.1305250533092</v>
+        <v>92.13052505330928</v>
       </c>
       <c r="H19" t="n">
-        <v>70.85973170860176</v>
+        <v>70.85973170860184</v>
       </c>
       <c r="I19" t="n">
-        <v>84.8568313990818</v>
+        <v>84.85683139908087</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>15.03686946432832</v>
+        <v>15.03686946432839</v>
       </c>
       <c r="S19" t="n">
         <v>115.8737421257229</v>
@@ -2056,7 +2056,7 @@
         <v>145.6536660704502</v>
       </c>
       <c r="U19" t="n">
-        <v>212.3165549998938</v>
+        <v>212.3165549998939</v>
       </c>
       <c r="V19" t="n">
         <v>178.242360118109</v>
@@ -2065,7 +2065,7 @@
         <v>212.627715130872</v>
       </c>
       <c r="X19" t="n">
-        <v>151.8143721833181</v>
+        <v>151.8143721833182</v>
       </c>
       <c r="Y19" t="n">
         <v>144.6893701463758</v>
@@ -2081,22 +2081,22 @@
         <v>308.8385584577616</v>
       </c>
       <c r="C20" t="n">
-        <v>291.3776085652885</v>
+        <v>291.3776085652886</v>
       </c>
       <c r="D20" t="n">
-        <v>280.7877584149639</v>
+        <v>280.787758414964</v>
       </c>
       <c r="E20" t="n">
-        <v>308.0350868665428</v>
+        <v>307.9637310891312</v>
       </c>
       <c r="F20" t="n">
-        <v>332.9807625359924</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>337.0264424477344</v>
+        <v>337.0264424477345</v>
       </c>
       <c r="H20" t="n">
-        <v>17.68304980209935</v>
+        <v>220.7124811816015</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,22 +2129,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>35.29247858245679</v>
+        <v>35.29247858245691</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>130.0226869339012</v>
       </c>
       <c r="U20" t="n">
-        <v>177.0998887531829</v>
+        <v>177.0998887531831</v>
       </c>
       <c r="V20" t="n">
-        <v>253.8569752644159</v>
+        <v>253.856975264416</v>
       </c>
       <c r="W20" t="n">
-        <v>275.345685511694</v>
+        <v>275.3456855116941</v>
       </c>
       <c r="X20" t="n">
-        <v>295.83581747275</v>
+        <v>295.8358174727501</v>
       </c>
       <c r="Y20" t="n">
         <v>312.3426554503346</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>105.9366969762183</v>
+        <v>105.9366969762184</v>
       </c>
       <c r="C22" t="n">
-        <v>93.35153789290881</v>
+        <v>93.35153789290889</v>
       </c>
       <c r="D22" t="n">
-        <v>74.72018981249333</v>
+        <v>74.72018981249342</v>
       </c>
       <c r="E22" t="n">
-        <v>72.53867944085015</v>
+        <v>72.53867944085023</v>
       </c>
       <c r="F22" t="n">
-        <v>71.52576481721222</v>
+        <v>71.52576481721231</v>
       </c>
       <c r="G22" t="n">
-        <v>92.1305250533092</v>
+        <v>92.13052505330928</v>
       </c>
       <c r="H22" t="n">
-        <v>70.85973170860176</v>
+        <v>70.85973170860184</v>
       </c>
       <c r="I22" t="n">
-        <v>84.85683139908224</v>
+        <v>22.45713720411916</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>15.0368694643283</v>
+        <v>15.03686946432839</v>
       </c>
       <c r="S22" t="n">
-        <v>115.8737421257229</v>
+        <v>178.273436320685</v>
       </c>
       <c r="T22" t="n">
         <v>145.6536660704502</v>
       </c>
       <c r="U22" t="n">
-        <v>212.3165549998938</v>
+        <v>212.3165549998939</v>
       </c>
       <c r="V22" t="n">
         <v>178.242360118109</v>
@@ -2302,7 +2302,7 @@
         <v>212.627715130872</v>
       </c>
       <c r="X22" t="n">
-        <v>151.8143721833181</v>
+        <v>151.8143721833182</v>
       </c>
       <c r="Y22" t="n">
         <v>144.6893701463758</v>
@@ -2318,22 +2318,22 @@
         <v>308.8385584577616</v>
       </c>
       <c r="C23" t="n">
-        <v>291.3776085652885</v>
+        <v>291.3776085652886</v>
       </c>
       <c r="D23" t="n">
-        <v>280.7877584149639</v>
+        <v>280.787758414964</v>
       </c>
       <c r="E23" t="n">
         <v>308.0350868665428</v>
       </c>
       <c r="F23" t="n">
-        <v>332.9807625359924</v>
+        <v>332.9807625359925</v>
       </c>
       <c r="G23" t="n">
-        <v>337.0264424477344</v>
+        <v>337.0264424477345</v>
       </c>
       <c r="H23" t="n">
-        <v>220.7124811816014</v>
+        <v>220.7124811816015</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,22 +2366,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>35.29247858245681</v>
+        <v>35.29247858245689</v>
       </c>
       <c r="T23" t="n">
-        <v>130.0226869339011</v>
+        <v>130.0226869339012</v>
       </c>
       <c r="U23" t="n">
-        <v>177.0998887531829</v>
+        <v>177.0998887531831</v>
       </c>
       <c r="V23" t="n">
-        <v>253.8569752644159</v>
+        <v>253.856975264416</v>
       </c>
       <c r="W23" t="n">
-        <v>275.345685511694</v>
+        <v>275.3456855116941</v>
       </c>
       <c r="X23" t="n">
-        <v>295.83581747275</v>
+        <v>295.8358174727501</v>
       </c>
       <c r="Y23" t="n">
         <v>312.3426554503346</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>105.9366969762183</v>
+        <v>105.9366969762184</v>
       </c>
       <c r="C25" t="n">
-        <v>93.35153789290881</v>
+        <v>93.35153789290889</v>
       </c>
       <c r="D25" t="n">
-        <v>74.72018981249333</v>
+        <v>74.72018981249342</v>
       </c>
       <c r="E25" t="n">
-        <v>134.9383736358133</v>
+        <v>72.53867944085023</v>
       </c>
       <c r="F25" t="n">
-        <v>71.52576481721222</v>
+        <v>71.52576481721231</v>
       </c>
       <c r="G25" t="n">
-        <v>92.1305250533092</v>
+        <v>92.13052505330928</v>
       </c>
       <c r="H25" t="n">
-        <v>70.85973170860176</v>
+        <v>70.85973170860184</v>
       </c>
       <c r="I25" t="n">
-        <v>22.45713720411907</v>
+        <v>84.85683139908085</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>15.0368694643283</v>
+        <v>15.03686946432839</v>
       </c>
       <c r="S25" t="n">
         <v>115.8737421257229</v>
@@ -2530,7 +2530,7 @@
         <v>145.6536660704502</v>
       </c>
       <c r="U25" t="n">
-        <v>212.3165549998938</v>
+        <v>212.3165549998939</v>
       </c>
       <c r="V25" t="n">
         <v>178.242360118109</v>
@@ -2539,7 +2539,7 @@
         <v>212.627715130872</v>
       </c>
       <c r="X25" t="n">
-        <v>151.8143721833181</v>
+        <v>151.8143721833182</v>
       </c>
       <c r="Y25" t="n">
         <v>144.6893701463758</v>
@@ -2552,16 +2552,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>335.7587050448881</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C26" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D26" t="n">
-        <v>307.7079050020905</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E26" t="n">
-        <v>334.9552334536693</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F26" t="n">
         <v>359.9009091231189</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958331</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T26" t="n">
         <v>156.9428335210276</v>
@@ -2612,7 +2612,7 @@
         <v>204.0200353403094</v>
       </c>
       <c r="V26" t="n">
-        <v>280.7771218515424</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W26" t="n">
         <v>302.2658320988205</v>
@@ -2621,7 +2621,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y26" t="n">
-        <v>339.2628020374611</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="27">
@@ -2731,7 +2731,7 @@
         <v>97.77987829572825</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124557</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.9570160514548</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S28" t="n">
         <v>142.7938887128494</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.2126251695833</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145479</v>
+        <v>41.9570160514548</v>
       </c>
       <c r="S31" t="n">
         <v>142.7938887128494</v>
@@ -3235,7 +3235,7 @@
         <v>41.95701605145479</v>
       </c>
       <c r="S34" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T34" t="n">
         <v>172.5738126575766</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.50304156007095</v>
+        <v>11.50304156007094</v>
       </c>
       <c r="T35" t="n">
-        <v>106.2332499115153</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U35" t="n">
         <v>153.3104517307971</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734102899</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.14725995383242</v>
+        <v>82.1472599538324</v>
       </c>
       <c r="C37" t="n">
-        <v>69.56210087052295</v>
+        <v>69.56210087052294</v>
       </c>
       <c r="D37" t="n">
-        <v>50.93075279010748</v>
+        <v>50.93075279010746</v>
       </c>
       <c r="E37" t="n">
-        <v>48.74924241846429</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>47.73632779482637</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>68.34108803092334</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>47.0702946862159</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,25 +3469,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>92.08430510333702</v>
+        <v>92.084305103337</v>
       </c>
       <c r="T37" t="n">
-        <v>121.8642290480643</v>
+        <v>164.0711673124573</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>188.527117977508</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X37" t="n">
-        <v>178.9844409833829</v>
+        <v>128.0249351609323</v>
       </c>
       <c r="Y37" t="n">
         <v>120.8999331239899</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.50304156007095</v>
+        <v>11.50304156007094</v>
       </c>
       <c r="T38" t="n">
-        <v>106.2332499115153</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U38" t="n">
         <v>153.3104517307971</v>
@@ -3600,7 +3600,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.14725995383242</v>
+        <v>82.1472599538324</v>
       </c>
       <c r="C40" t="n">
-        <v>69.56210087052295</v>
+        <v>69.56210087052294</v>
       </c>
       <c r="D40" t="n">
-        <v>50.93075279010748</v>
+        <v>50.93075279010746</v>
       </c>
       <c r="E40" t="n">
-        <v>48.74924241846429</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>47.73632779482637</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>68.34108803092334</v>
+        <v>68.34108803092333</v>
       </c>
       <c r="H40" t="n">
-        <v>47.0702946862159</v>
+        <v>47.07029468621589</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3712,13 +3712,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>172.8237348705153</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>188.527117977508</v>
       </c>
       <c r="V40" t="n">
-        <v>205.4124289181735</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W40" t="n">
         <v>188.8382781084861</v>
@@ -3740,7 +3740,7 @@
         <v>285.0491214353757</v>
       </c>
       <c r="C41" t="n">
-        <v>267.5881715429027</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D41" t="n">
         <v>256.9983213925781</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.50304156007094</v>
+        <v>11.50304156007093</v>
       </c>
       <c r="T41" t="n">
         <v>106.2332499115152</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3895,19 +3895,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.1472599538324</v>
+        <v>82.14725995383239</v>
       </c>
       <c r="C43" t="n">
-        <v>69.56210087052294</v>
+        <v>69.56210087052293</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>50.93075279010745</v>
       </c>
       <c r="E43" t="n">
-        <v>48.74924241846428</v>
+        <v>48.74924241846426</v>
       </c>
       <c r="F43" t="n">
-        <v>47.73632779482635</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.0258082590282</v>
@@ -3916,7 +3916,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,13 +3946,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>134.2912433677299</v>
+        <v>135.6235431859974</v>
       </c>
       <c r="T43" t="n">
         <v>121.8642290480643</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V43" t="n">
         <v>154.4529230957231</v>
@@ -3961,7 +3961,7 @@
         <v>188.8382781084861</v>
       </c>
       <c r="X43" t="n">
-        <v>128.0249351609323</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y43" t="n">
         <v>120.8999331239899</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.50304156007088</v>
+        <v>11.5030415600709</v>
       </c>
       <c r="T44" t="n">
         <v>106.2332499115152</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.14725995383235</v>
+        <v>82.14725995383236</v>
       </c>
       <c r="C46" t="n">
-        <v>69.56210087052288</v>
+        <v>69.5621008705229</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>50.93075279010742</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>47.73632779482631</v>
       </c>
       <c r="G46" t="n">
-        <v>68.34108803092327</v>
+        <v>68.34108803092329</v>
       </c>
       <c r="H46" t="n">
-        <v>47.07029468621583</v>
+        <v>47.07029468621585</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,19 +4180,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>134.2912433677306</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>121.8642290480643</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>188.5271179775079</v>
+        <v>239.4866237999591</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W46" t="n">
         <v>188.8382781084861</v>
@@ -4201,7 +4201,7 @@
         <v>128.0249351609322</v>
       </c>
       <c r="Y46" t="n">
-        <v>120.8999331239898</v>
+        <v>120.8999331239899</v>
       </c>
     </row>
   </sheetData>
@@ -5015,46 +5015,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1813.052518175211</v>
+        <v>1768.754402051654</v>
       </c>
       <c r="C11" t="n">
-        <v>1813.052518175211</v>
+        <v>1426.983952370966</v>
       </c>
       <c r="D11" t="n">
-        <v>1481.978886828184</v>
+        <v>1095.910321023939</v>
       </c>
       <c r="E11" t="n">
-        <v>1123.382701489664</v>
+        <v>737.3141356854185</v>
       </c>
       <c r="F11" t="n">
-        <v>739.5888639597799</v>
+        <v>737.3141356854185</v>
       </c>
       <c r="G11" t="n">
-        <v>351.7084810645001</v>
+        <v>349.4337527901386</v>
       </c>
       <c r="H11" t="n">
-        <v>81.31694793299113</v>
+        <v>79.04221965862902</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218357</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912096</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810566</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
         <v>3018.302393296687</v>
@@ -5081,10 +5081,10 @@
         <v>2837.383130573497</v>
       </c>
       <c r="X11" t="n">
-        <v>2535.407555695697</v>
+        <v>2491.109439572141</v>
       </c>
       <c r="Y11" t="n">
-        <v>2172.460290979609</v>
+        <v>2128.162174856052</v>
       </c>
     </row>
     <row r="12">
@@ -5109,10 +5109,10 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218343</v>
@@ -5121,25 +5121,25 @@
         <v>160.1893859228008</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R12" t="n">
         <v>2564.909189125856</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>639.8272137173715</v>
+        <v>674.551539427491</v>
       </c>
       <c r="C13" t="n">
-        <v>639.8272137173715</v>
+        <v>532.8074237593079</v>
       </c>
       <c r="D13" t="n">
-        <v>516.9026415647595</v>
+        <v>409.8828516066958</v>
       </c>
       <c r="E13" t="n">
-        <v>396.1816152420901</v>
+        <v>289.1618252840266</v>
       </c>
       <c r="F13" t="n">
-        <v>396.1816152420901</v>
+        <v>289.1618252840266</v>
       </c>
       <c r="G13" t="n">
-        <v>255.6708458765328</v>
+        <v>255.670845876533</v>
       </c>
       <c r="H13" t="n">
-        <v>136.6457263541143</v>
+        <v>136.6457263541144</v>
       </c>
       <c r="I13" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
-        <v>138.2856940003743</v>
+        <v>138.2856940003742</v>
       </c>
       <c r="K13" t="n">
-        <v>368.9238220705058</v>
+        <v>368.9238220705057</v>
       </c>
       <c r="L13" t="n">
-        <v>712.1345656402572</v>
+        <v>712.1345656402571</v>
       </c>
       <c r="M13" t="n">
         <v>1082.942556361061</v>
@@ -5221,28 +5221,28 @@
         <v>2140.502109058534</v>
       </c>
       <c r="R13" t="n">
-        <v>2077.863719075786</v>
+        <v>2140.502109058534</v>
       </c>
       <c r="S13" t="n">
-        <v>1913.369902162336</v>
+        <v>1976.008292145084</v>
       </c>
       <c r="T13" t="n">
-        <v>1718.795353991586</v>
+        <v>1781.433743974334</v>
       </c>
       <c r="U13" t="n">
-        <v>1523.942732962871</v>
+        <v>1519.522944359701</v>
       </c>
       <c r="V13" t="n">
-        <v>1296.450312016708</v>
+        <v>1292.030523413538</v>
       </c>
       <c r="W13" t="n">
-        <v>1034.225209239471</v>
+        <v>1029.805420636301</v>
       </c>
       <c r="X13" t="n">
-        <v>833.4277256011778</v>
+        <v>829.007936998007</v>
       </c>
       <c r="Y13" t="n">
-        <v>639.8272137173715</v>
+        <v>829.007936998007</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2140.018136355092</v>
+        <v>1443.177814041263</v>
       </c>
       <c r="C14" t="n">
-        <v>1798.247686674404</v>
+        <v>1101.407364360575</v>
       </c>
       <c r="D14" t="n">
-        <v>1467.174055327377</v>
+        <v>1101.407364360575</v>
       </c>
       <c r="E14" t="n">
-        <v>1108.577869988856</v>
+        <v>742.8111790220546</v>
       </c>
       <c r="F14" t="n">
-        <v>724.7840324589724</v>
+        <v>739.5888639597802</v>
       </c>
       <c r="G14" t="n">
-        <v>336.9036495636926</v>
+        <v>351.7084810645002</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218342</v>
+        <v>81.31694793299107</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M14" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O14" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R14" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609171</v>
+        <v>3242.50722039599</v>
       </c>
       <c r="T14" t="n">
-        <v>3325.605821609171</v>
+        <v>3063.721540039936</v>
       </c>
       <c r="U14" t="n">
-        <v>3099.267412142731</v>
+        <v>2837.383130573497</v>
       </c>
       <c r="V14" t="n">
-        <v>3099.267412142731</v>
+        <v>2837.383130573497</v>
       </c>
       <c r="W14" t="n">
-        <v>3099.267412142731</v>
+        <v>2511.806542563106</v>
       </c>
       <c r="X14" t="n">
-        <v>2752.993721141374</v>
+        <v>2165.53285156175</v>
       </c>
       <c r="Y14" t="n">
-        <v>2390.046456425286</v>
+        <v>1802.585586845662</v>
       </c>
     </row>
     <row r="15">
@@ -5331,46 +5331,46 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P15" t="n">
         <v>2407.411984886741</v>
@@ -5388,7 +5388,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5397,10 +5397,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>480.9510275436841</v>
+        <v>537.9257309102736</v>
       </c>
       <c r="C16" t="n">
-        <v>339.2069118755008</v>
+        <v>396.1816152420904</v>
       </c>
       <c r="D16" t="n">
-        <v>339.2069118755008</v>
+        <v>396.1816152420904</v>
       </c>
       <c r="E16" t="n">
-        <v>218.4858855528313</v>
+        <v>396.1816152420904</v>
       </c>
       <c r="F16" t="n">
-        <v>218.4858855528313</v>
+        <v>396.1816152420904</v>
       </c>
       <c r="G16" t="n">
-        <v>77.97511618727374</v>
+        <v>255.670845876533</v>
       </c>
       <c r="H16" t="n">
-        <v>77.97511618727374</v>
+        <v>136.6457263541144</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J16" t="n">
         <v>138.2856940003742</v>
@@ -5446,40 +5446,40 @@
         <v>1082.942556361061</v>
       </c>
       <c r="N16" t="n">
-        <v>1451.001878188181</v>
+        <v>1451.00187818818</v>
       </c>
       <c r="O16" t="n">
-        <v>1776.98242222985</v>
+        <v>1776.982422229849</v>
       </c>
       <c r="P16" t="n">
-        <v>2036.240867784764</v>
+        <v>2036.240867784763</v>
       </c>
       <c r="Q16" t="n">
-        <v>2140.502109058534</v>
+        <v>2140.502109058533</v>
       </c>
       <c r="R16" t="n">
-        <v>2140.502109058534</v>
+        <v>2077.863719075785</v>
       </c>
       <c r="S16" t="n">
-        <v>1976.008292145084</v>
+        <v>1913.369902162335</v>
       </c>
       <c r="T16" t="n">
-        <v>1781.433743974334</v>
+        <v>1718.795353991585</v>
       </c>
       <c r="U16" t="n">
-        <v>1519.522944359701</v>
+        <v>1456.884554376952</v>
       </c>
       <c r="V16" t="n">
-        <v>1292.030523413537</v>
+        <v>1229.392133430788</v>
       </c>
       <c r="W16" t="n">
-        <v>1029.8054206363</v>
+        <v>967.1670306535514</v>
       </c>
       <c r="X16" t="n">
-        <v>829.0079369980066</v>
+        <v>885.9826403645961</v>
       </c>
       <c r="Y16" t="n">
-        <v>635.4074251142001</v>
+        <v>692.3821284807897</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1855.320338666652</v>
+        <v>1775.325244677776</v>
       </c>
       <c r="C17" t="n">
         <v>1560.999521934037</v>
@@ -5498,28 +5498,28 @@
         <v>1277.375523535084</v>
       </c>
       <c r="E17" t="n">
-        <v>966.2289711446367</v>
+        <v>966.2289711446363</v>
       </c>
       <c r="F17" t="n">
-        <v>629.8847665628264</v>
+        <v>629.8847665628257</v>
       </c>
       <c r="G17" t="n">
         <v>289.4540166156193</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M17" t="n">
         <v>1573.776739001388</v>
@@ -5531,34 +5531,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R17" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.605821609171</v>
+        <v>3289.956853344063</v>
       </c>
       <c r="T17" t="n">
-        <v>3238.615899924958</v>
+        <v>3158.620805936082</v>
       </c>
       <c r="U17" t="n">
-        <v>3059.727123406592</v>
+        <v>2979.732029417716</v>
       </c>
       <c r="V17" t="n">
-        <v>3059.727123406592</v>
+        <v>2979.732029417716</v>
       </c>
       <c r="W17" t="n">
-        <v>2781.600168344275</v>
+        <v>2701.605074355399</v>
       </c>
       <c r="X17" t="n">
-        <v>2482.776110290992</v>
+        <v>2402.781016302116</v>
       </c>
       <c r="Y17" t="n">
-        <v>2167.278478522977</v>
+        <v>2087.283384534101</v>
       </c>
     </row>
     <row r="18">
@@ -5568,37 +5568,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D18" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031474</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5625,7 +5625,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5634,10 +5634,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="19">
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>632.1517731235544</v>
+        <v>632.151773123554</v>
       </c>
       <c r="C19" t="n">
-        <v>537.8572904034445</v>
+        <v>537.857290403444</v>
       </c>
       <c r="D19" t="n">
-        <v>462.3823511989058</v>
+        <v>462.3823511989052</v>
       </c>
       <c r="E19" t="n">
-        <v>389.1109578243097</v>
+        <v>389.110957824309</v>
       </c>
       <c r="F19" t="n">
-        <v>316.8627105341963</v>
+        <v>316.8627105341956</v>
       </c>
       <c r="G19" t="n">
-        <v>223.8015741167123</v>
+        <v>223.8015741167114</v>
       </c>
       <c r="H19" t="n">
-        <v>152.2260875423671</v>
+        <v>152.2260875423661</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J19" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L19" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N19" t="n">
         <v>1317.747152581905</v>
@@ -5692,13 +5692,13 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q19" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>1912.105791053817</v>
+        <v>1912.105791053818</v>
       </c>
       <c r="S19" t="n">
-        <v>1795.06160708844</v>
+        <v>1795.061607088441</v>
       </c>
       <c r="T19" t="n">
         <v>1647.936691865764</v>
@@ -5710,13 +5710,13 @@
         <v>1253.432737201114</v>
       </c>
       <c r="W19" t="n">
-        <v>1038.657267371951</v>
+        <v>1038.65726737195</v>
       </c>
       <c r="X19" t="n">
-        <v>885.3094166817302</v>
+        <v>885.30941668173</v>
       </c>
       <c r="Y19" t="n">
-        <v>739.1585377459971</v>
+        <v>739.1585377459968</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1650.240104949983</v>
+        <v>1518.904057542002</v>
       </c>
       <c r="C20" t="n">
-        <v>1355.919288217368</v>
+        <v>1224.583240809387</v>
       </c>
       <c r="D20" t="n">
-        <v>1072.295289818415</v>
+        <v>940.9592424104337</v>
       </c>
       <c r="E20" t="n">
-        <v>761.1487374279677</v>
+        <v>629.8847665628259</v>
       </c>
       <c r="F20" t="n">
-        <v>424.8045328461571</v>
+        <v>629.8847665628259</v>
       </c>
       <c r="G20" t="n">
-        <v>84.37378289895044</v>
+        <v>289.4540166156193</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810566</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O20" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R20" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3289.956853344062</v>
+        <v>3289.956853344063</v>
       </c>
       <c r="T20" t="n">
-        <v>3289.956853344062</v>
+        <v>3158.620805936082</v>
       </c>
       <c r="U20" t="n">
-        <v>3111.068076825696</v>
+        <v>2979.732029417716</v>
       </c>
       <c r="V20" t="n">
-        <v>2854.646889689922</v>
+        <v>2723.310842281942</v>
       </c>
       <c r="W20" t="n">
-        <v>2576.519934627605</v>
+        <v>2445.183887219624</v>
       </c>
       <c r="X20" t="n">
-        <v>2277.695876574322</v>
+        <v>2146.359829166342</v>
       </c>
       <c r="Y20" t="n">
-        <v>1962.198244806307</v>
+        <v>1830.862197398327</v>
       </c>
     </row>
     <row r="21">
@@ -5805,70 +5805,70 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J21" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158139</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M21" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
         <v>1317.519490266131</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>632.1517731235549</v>
+        <v>569.121778987229</v>
       </c>
       <c r="C22" t="n">
-        <v>537.8572904034449</v>
+        <v>474.8272962671191</v>
       </c>
       <c r="D22" t="n">
-        <v>462.3823511989062</v>
+        <v>399.3523570625803</v>
       </c>
       <c r="E22" t="n">
-        <v>389.1109578243101</v>
+        <v>326.0809636879841</v>
       </c>
       <c r="F22" t="n">
-        <v>316.8627105341968</v>
+        <v>253.8327163978706</v>
       </c>
       <c r="G22" t="n">
-        <v>223.8015741167127</v>
+        <v>160.7715799803865</v>
       </c>
       <c r="H22" t="n">
-        <v>152.2260875423675</v>
+        <v>89.19609340604117</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J22" t="n">
         <v>111.634748879119</v>
@@ -5935,25 +5935,25 @@
         <v>1912.105791053818</v>
       </c>
       <c r="S22" t="n">
-        <v>1795.061607088441</v>
+        <v>1732.031612952116</v>
       </c>
       <c r="T22" t="n">
-        <v>1647.936691865764</v>
+        <v>1584.906697729439</v>
       </c>
       <c r="U22" t="n">
-        <v>1433.475525199205</v>
+        <v>1370.445531062879</v>
       </c>
       <c r="V22" t="n">
-        <v>1253.432737201115</v>
+        <v>1190.402743064789</v>
       </c>
       <c r="W22" t="n">
-        <v>1038.657267371951</v>
+        <v>975.6272732356255</v>
       </c>
       <c r="X22" t="n">
-        <v>885.3094166817307</v>
+        <v>822.2794225454051</v>
       </c>
       <c r="Y22" t="n">
-        <v>739.1585377459976</v>
+        <v>676.1285436096719</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5963,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1862.185977056951</v>
+        <v>1862.185977056952</v>
       </c>
       <c r="C23" t="n">
-        <v>1567.865160324336</v>
+        <v>1567.865160324337</v>
       </c>
       <c r="D23" t="n">
         <v>1284.241161925383</v>
@@ -5978,46 +5978,46 @@
         <v>636.7504049531253</v>
       </c>
       <c r="G23" t="n">
-        <v>296.3196550059182</v>
+        <v>296.3196550059183</v>
       </c>
       <c r="H23" t="n">
-        <v>73.3777548224824</v>
+        <v>73.37775482248242</v>
       </c>
       <c r="I23" t="n">
-        <v>73.3777548224824</v>
+        <v>73.37775482248242</v>
       </c>
       <c r="J23" t="n">
-        <v>429.6625348018609</v>
+        <v>388.481326152853</v>
       </c>
       <c r="K23" t="n">
-        <v>763.4819084917074</v>
+        <v>722.3006998426995</v>
       </c>
       <c r="L23" t="n">
-        <v>1214.516121740116</v>
+        <v>1173.334913091108</v>
       </c>
       <c r="M23" t="n">
-        <v>1748.048026412041</v>
+        <v>1706.866817763033</v>
       </c>
       <c r="N23" t="n">
-        <v>2294.826843470823</v>
+        <v>2253.645634821815</v>
       </c>
       <c r="O23" t="n">
-        <v>2797.79931435016</v>
+        <v>2756.618105701152</v>
       </c>
       <c r="P23" t="n">
-        <v>3192.573680707338</v>
+        <v>3151.39247205833</v>
       </c>
       <c r="Q23" t="n">
-        <v>3544.811418893065</v>
+        <v>3609.870674567318</v>
       </c>
       <c r="R23" t="n">
-        <v>3668.88774112412</v>
+        <v>3668.887741124121</v>
       </c>
       <c r="S23" t="n">
-        <v>3633.238772859012</v>
+        <v>3633.238772859013</v>
       </c>
       <c r="T23" t="n">
-        <v>3501.902725451031</v>
+        <v>3501.902725451032</v>
       </c>
       <c r="U23" t="n">
         <v>3323.013948932665</v>
@@ -6060,10 +6060,10 @@
         <v>182.8869407830769</v>
       </c>
       <c r="H24" t="n">
-        <v>92.38504642094443</v>
+        <v>92.38504642094446</v>
       </c>
       <c r="I24" t="n">
-        <v>73.3777548224824</v>
+        <v>73.37775482248242</v>
       </c>
       <c r="J24" t="n">
         <v>167.0550243130998</v>
@@ -6072,13 +6072,13 @@
         <v>405.3192232934469</v>
       </c>
       <c r="L24" t="n">
-        <v>772.017383606112</v>
+        <v>772.0173836061123</v>
       </c>
       <c r="M24" t="n">
         <v>1219.293708828428</v>
       </c>
       <c r="N24" t="n">
-        <v>1692.816752382882</v>
+        <v>1692.816752382883</v>
       </c>
       <c r="O24" t="n">
         <v>2103.778031800937</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>639.0174115138539</v>
+        <v>639.0174115138529</v>
       </c>
       <c r="C25" t="n">
-        <v>544.7229287937439</v>
+        <v>544.722928793743</v>
       </c>
       <c r="D25" t="n">
-        <v>469.2479895892052</v>
+        <v>469.2479895892042</v>
       </c>
       <c r="E25" t="n">
-        <v>332.9466020782827</v>
+        <v>395.976596214608</v>
       </c>
       <c r="F25" t="n">
-        <v>260.6983547881694</v>
+        <v>323.7283489244945</v>
       </c>
       <c r="G25" t="n">
-        <v>167.6372183706853</v>
+        <v>230.6672125070104</v>
       </c>
       <c r="H25" t="n">
-        <v>96.06173179634006</v>
+        <v>159.0917259326651</v>
       </c>
       <c r="I25" t="n">
-        <v>73.3777548224824</v>
+        <v>73.37775482248242</v>
       </c>
       <c r="J25" t="n">
         <v>118.500387269418</v>
       </c>
       <c r="K25" t="n">
-        <v>322.4875702182943</v>
+        <v>322.4875702182944</v>
       </c>
       <c r="L25" t="n">
-        <v>639.0473686667904</v>
+        <v>639.0473686667905</v>
       </c>
       <c r="M25" t="n">
         <v>983.2044142663394</v>
@@ -6178,19 +6178,19 @@
         <v>1654.802330256063</v>
       </c>
       <c r="U25" t="n">
-        <v>1440.341163589504</v>
+        <v>1440.341163589503</v>
       </c>
       <c r="V25" t="n">
-        <v>1260.298375591414</v>
+        <v>1260.298375591413</v>
       </c>
       <c r="W25" t="n">
-        <v>1045.52290576225</v>
+        <v>1045.522905762249</v>
       </c>
       <c r="X25" t="n">
-        <v>892.1750550720296</v>
+        <v>892.175055072029</v>
       </c>
       <c r="Y25" t="n">
-        <v>746.0241761362965</v>
+        <v>746.0241761362958</v>
       </c>
     </row>
     <row r="26">
@@ -6218,37 +6218,37 @@
         <v>331.2808843398487</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J26" t="n">
-        <v>437.4316968760676</v>
+        <v>393.2994530991701</v>
       </c>
       <c r="K26" t="n">
-        <v>771.2510705659141</v>
+        <v>727.1188267890166</v>
       </c>
       <c r="L26" t="n">
-        <v>1222.285283814323</v>
+        <v>1178.153040037425</v>
       </c>
       <c r="M26" t="n">
-        <v>2200.835586644152</v>
+        <v>1711.68494470935</v>
       </c>
       <c r="N26" t="n">
-        <v>2747.614403702934</v>
+        <v>2258.463761768132</v>
       </c>
       <c r="O26" t="n">
-        <v>3250.586874582271</v>
+        <v>2761.436232647469</v>
       </c>
       <c r="P26" t="n">
-        <v>3645.361240939449</v>
+        <v>3474.791320094415</v>
       </c>
       <c r="Q26" t="n">
-        <v>3998.328778277656</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R26" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S26" t="n">
         <v>3994.504809309627</v>
@@ -6300,7 +6300,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J27" t="n">
         <v>174.8241863873065</v>
@@ -6379,16 +6379,16 @@
         <v>131.0229611302705</v>
       </c>
       <c r="I28" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J28" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973148</v>
+        <v>423.2675027973141</v>
       </c>
       <c r="L28" t="n">
-        <v>786.3326864982175</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M28" t="n">
         <v>1176.995117350173</v>
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C29" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.59465869716</v>
       </c>
       <c r="D29" t="n">
         <v>1400.778593038484</v>
@@ -6449,64 +6449,64 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467786</v>
       </c>
       <c r="G29" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H29" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I29" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J29" t="n">
         <v>270.0260478557146</v>
       </c>
       <c r="K29" t="n">
-        <v>625.3777437664567</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L29" t="n">
-        <v>1076.411957014865</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M29" t="n">
-        <v>1609.94386168679</v>
+        <v>2033.429937623799</v>
       </c>
       <c r="N29" t="n">
-        <v>2156.722678745572</v>
+        <v>2852.295579285458</v>
       </c>
       <c r="O29" t="n">
-        <v>3036.687329075027</v>
+        <v>3355.268050164795</v>
       </c>
       <c r="P29" t="n">
         <v>3750.042416521973</v>
       </c>
       <c r="Q29" t="n">
-        <v>3998.328778277656</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R29" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S29" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U29" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V29" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W29" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y29" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805547</v>
       </c>
     </row>
     <row r="30">
@@ -6516,37 +6516,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456147</v>
       </c>
       <c r="C30" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644877</v>
       </c>
       <c r="D30" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032365</v>
       </c>
       <c r="E30" t="n">
-        <v>473.5537609977806</v>
+        <v>473.553760997781</v>
       </c>
       <c r="F30" t="n">
-        <v>327.0192030246656</v>
+        <v>327.019203024666</v>
       </c>
       <c r="G30" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572846</v>
       </c>
       <c r="H30" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951516</v>
       </c>
       <c r="I30" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J30" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873068</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676542</v>
       </c>
       <c r="L30" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803195</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
@@ -6555,25 +6555,25 @@
         <v>1700.58591445709</v>
       </c>
       <c r="O30" t="n">
-        <v>2111.547193875144</v>
+        <v>2111.547193875145</v>
       </c>
       <c r="P30" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351248</v>
       </c>
       <c r="Q30" t="n">
         <v>2579.688342997847</v>
       </c>
       <c r="R30" t="n">
-        <v>2579.543989590362</v>
+        <v>2579.543989590363</v>
       </c>
       <c r="S30" t="n">
-        <v>2450.106103083842</v>
+        <v>2450.106103083843</v>
       </c>
       <c r="T30" t="n">
         <v>2257.463102761698</v>
       </c>
       <c r="U30" t="n">
-        <v>2029.395255896113</v>
+        <v>2029.395255896114</v>
       </c>
       <c r="V30" t="n">
         <v>1794.243147664371</v>
@@ -6582,10 +6582,10 @@
         <v>1540.005790936169</v>
       </c>
       <c r="X30" t="n">
-        <v>1332.154290730636</v>
+        <v>1332.154290730637</v>
       </c>
       <c r="Y30" t="n">
-        <v>1124.393991965682</v>
+        <v>1124.393991965683</v>
       </c>
     </row>
     <row r="31">
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502698003</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899667</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257042</v>
       </c>
       <c r="E31" t="n">
         <v>449.4840331913844</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415473</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G31" t="n">
         <v>229.7905149643395</v>
@@ -6616,16 +6616,16 @@
         <v>131.0229611302705</v>
       </c>
       <c r="I31" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960315</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973145</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982172</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M31" t="n">
         <v>1176.995117350173</v>
@@ -6640,31 +6640,31 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q31" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R31" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S31" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T31" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U31" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V31" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W31" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X31" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519668</v>
       </c>
     </row>
     <row r="32">
@@ -6674,64 +6674,64 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C32" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D32" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E32" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467795</v>
+        <v>698.9037015467786</v>
       </c>
       <c r="G32" t="n">
-        <v>331.2808843398493</v>
+        <v>331.2808843398484</v>
       </c>
       <c r="H32" t="n">
-        <v>81.14691689668979</v>
+        <v>81.14691689668888</v>
       </c>
       <c r="I32" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J32" t="n">
         <v>437.4316968760676</v>
       </c>
       <c r="K32" t="n">
-        <v>771.2510705659141</v>
+        <v>1002.369923216575</v>
       </c>
       <c r="L32" t="n">
-        <v>1222.285283814323</v>
+        <v>1453.404136464983</v>
       </c>
       <c r="M32" t="n">
-        <v>1755.817188486248</v>
+        <v>1986.936041136908</v>
       </c>
       <c r="N32" t="n">
-        <v>2302.59600554503</v>
+        <v>2533.71485819569</v>
       </c>
       <c r="O32" t="n">
-        <v>2805.568476424367</v>
+        <v>3036.687329075027</v>
       </c>
       <c r="P32" t="n">
-        <v>3474.791320094415</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q32" t="n">
-        <v>3933.269522603403</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R32" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S32" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U32" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V32" t="n">
         <v>3346.282596468334</v>
@@ -6740,10 +6740,10 @@
         <v>3040.963574146293</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y32" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="33">
@@ -6774,7 +6774,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I33" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J33" t="n">
         <v>174.8241863873065</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502698002</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899666</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257041</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E34" t="n">
         <v>449.4840331913842</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H34" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I34" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973141</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M34" t="n">
         <v>1176.995117350173</v>
@@ -6901,7 +6901,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="35">
@@ -6920,55 +6920,55 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E35" t="n">
-        <v>894.1397680464971</v>
+        <v>894.1397680464975</v>
       </c>
       <c r="F35" t="n">
-        <v>581.8252978307329</v>
+        <v>581.8252978307332</v>
       </c>
       <c r="G35" t="n">
         <v>265.4242822495729</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O35" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3313.986587710111</v>
+        <v>3313.98658771011</v>
       </c>
       <c r="T35" t="n">
         <v>3206.680274668176</v>
       </c>
       <c r="U35" t="n">
-        <v>3051.821232515856</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V35" t="n">
         <v>2819.429779746128</v>
@@ -7011,7 +7011,7 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J36" t="n">
         <v>160.1893859228008</v>
@@ -7020,19 +7020,19 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158133</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N36" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O36" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q36" t="n">
         <v>2565.053542533341</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>402.2593958170929</v>
+        <v>796.9451341124661</v>
       </c>
       <c r="C37" t="n">
-        <v>331.9946474630293</v>
+        <v>726.6803857584025</v>
       </c>
       <c r="D37" t="n">
-        <v>280.5494426245369</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E37" t="n">
-        <v>231.3077836159871</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F37" t="n">
-        <v>183.0892706919201</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G37" t="n">
-        <v>114.0578686404823</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J37" t="n">
         <v>111.634748879119</v>
@@ -7117,28 +7117,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R37" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S37" t="n">
-        <v>1744.44964124669</v>
+        <v>1834.280098489162</v>
       </c>
       <c r="T37" t="n">
-        <v>1621.35446039006</v>
+        <v>1668.551646658397</v>
       </c>
       <c r="U37" t="n">
-        <v>1332.251593515703</v>
+        <v>1478.120214357884</v>
       </c>
       <c r="V37" t="n">
-        <v>1077.567105309816</v>
+        <v>1322.107160725841</v>
       </c>
       <c r="W37" t="n">
-        <v>788.1499352728558</v>
+        <v>1131.361425262723</v>
       </c>
       <c r="X37" t="n">
-        <v>607.3575706431761</v>
+        <v>1002.043308938549</v>
       </c>
       <c r="Y37" t="n">
-        <v>485.2364260734893</v>
+        <v>879.9221643688625</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C38" t="n">
         <v>1440.850850103805</v>
@@ -7157,7 +7157,7 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E38" t="n">
-        <v>894.139768046497</v>
+        <v>894.1397680464975</v>
       </c>
       <c r="F38" t="n">
         <v>581.8252978307332</v>
@@ -7190,7 +7190,7 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q38" t="n">
         <v>3266.588755052369</v>
@@ -7202,7 +7202,7 @@
         <v>3313.98658771011</v>
       </c>
       <c r="T38" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668176</v>
       </c>
       <c r="U38" t="n">
         <v>3051.821232515855</v>
@@ -7214,7 +7214,7 @@
         <v>2565.332559049857</v>
       </c>
       <c r="X38" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y38" t="n">
         <v>1999.070337960652</v>
@@ -7227,25 +7227,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G39" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I39" t="n">
         <v>66.51211643218343</v>
@@ -7284,7 +7284,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V39" t="n">
         <v>1779.608347199865</v>
@@ -7293,10 +7293,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="40">
@@ -7306,16 +7306,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>402.2593958170929</v>
+        <v>599.6022649647795</v>
       </c>
       <c r="C40" t="n">
-        <v>331.9946474630293</v>
+        <v>529.3375166107159</v>
       </c>
       <c r="D40" t="n">
-        <v>280.5494426245369</v>
+        <v>477.8923117722235</v>
       </c>
       <c r="E40" t="n">
-        <v>231.3077836159871</v>
+        <v>329.9792181898304</v>
       </c>
       <c r="F40" t="n">
         <v>183.08927069192</v>
@@ -7360,22 +7360,22 @@
         <v>1645.778206672847</v>
       </c>
       <c r="T40" t="n">
-        <v>1424.011591242373</v>
+        <v>1471.20877751071</v>
       </c>
       <c r="U40" t="n">
-        <v>1134.908724368016</v>
+        <v>1280.777345210197</v>
       </c>
       <c r="V40" t="n">
-        <v>927.4214224304675</v>
+        <v>1124.764291578154</v>
       </c>
       <c r="W40" t="n">
-        <v>736.6756869673502</v>
+        <v>934.0185561150365</v>
       </c>
       <c r="X40" t="n">
-        <v>607.3575706431761</v>
+        <v>804.7004397908626</v>
       </c>
       <c r="Y40" t="n">
-        <v>485.2364260734893</v>
+        <v>682.5792952211758</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C41" t="n">
         <v>1440.850850103805</v>
@@ -7394,22 +7394,22 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E41" t="n">
-        <v>894.1397680464975</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F41" t="n">
-        <v>581.8252978307332</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G41" t="n">
         <v>265.4242822495729</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K41" t="n">
         <v>589.2106210810557</v>
@@ -7421,40 +7421,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O41" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T41" t="n">
-        <v>3206.680274668176</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U41" t="n">
-        <v>3051.821232515856</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V41" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W41" t="n">
-        <v>2565.332559049858</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X41" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y41" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960651</v>
       </c>
     </row>
     <row r="42">
@@ -7479,16 +7479,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
         <v>398.4535849031479</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>698.2736995386229</v>
+        <v>795.5993767202774</v>
       </c>
       <c r="C43" t="n">
-        <v>628.0089511845592</v>
+        <v>725.3346283662138</v>
       </c>
       <c r="D43" t="n">
-        <v>477.8923117722235</v>
+        <v>673.8894235277214</v>
       </c>
       <c r="E43" t="n">
-        <v>428.6506527636737</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F43" t="n">
-        <v>380.4321398396067</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G43" t="n">
-        <v>212.7293032143257</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
         <v>111.634748879119</v>
@@ -7594,25 +7594,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S43" t="n">
-        <v>1791.646827515028</v>
+        <v>1790.301070122839</v>
       </c>
       <c r="T43" t="n">
-        <v>1668.551646658398</v>
+        <v>1667.205889266208</v>
       </c>
       <c r="U43" t="n">
-        <v>1379.448779784041</v>
+        <v>1476.774456965695</v>
       </c>
       <c r="V43" t="n">
-        <v>1223.435726151997</v>
+        <v>1320.761403333652</v>
       </c>
       <c r="W43" t="n">
-        <v>1032.68999068888</v>
+        <v>1130.015667870535</v>
       </c>
       <c r="X43" t="n">
-        <v>903.3718743647059</v>
+        <v>1000.697551546361</v>
       </c>
       <c r="Y43" t="n">
-        <v>781.2507297950192</v>
+        <v>878.5764069766738</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C44" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103806</v>
       </c>
       <c r="D44" t="n">
         <v>1181.256586070898</v>
       </c>
       <c r="E44" t="n">
-        <v>894.139768046497</v>
+        <v>894.1397680464977</v>
       </c>
       <c r="F44" t="n">
-        <v>581.8252978307328</v>
+        <v>581.8252978307337</v>
       </c>
       <c r="G44" t="n">
         <v>265.4242822495729</v>
@@ -7676,22 +7676,22 @@
         <v>3313.98658771011</v>
       </c>
       <c r="T44" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668176</v>
       </c>
       <c r="U44" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515856</v>
       </c>
       <c r="V44" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746129</v>
       </c>
       <c r="W44" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049858</v>
       </c>
       <c r="X44" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y44" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960653</v>
       </c>
     </row>
     <row r="45">
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>698.2736995386226</v>
+        <v>500.9308303909359</v>
       </c>
       <c r="C46" t="n">
-        <v>628.0089511845591</v>
+        <v>430.6660820368724</v>
       </c>
       <c r="D46" t="n">
-        <v>477.8923117722234</v>
+        <v>379.22087719838</v>
       </c>
       <c r="E46" t="n">
-        <v>329.9792181898302</v>
+        <v>231.3077836159869</v>
       </c>
       <c r="F46" t="n">
         <v>183.0892706919199</v>
@@ -7828,28 +7828,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R46" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S46" t="n">
-        <v>1791.646827515028</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T46" t="n">
-        <v>1668.551646658397</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U46" t="n">
-        <v>1478.120214357884</v>
+        <v>1182.105910636354</v>
       </c>
       <c r="V46" t="n">
-        <v>1223.435726151997</v>
+        <v>1026.09285700431</v>
       </c>
       <c r="W46" t="n">
-        <v>1032.68999068888</v>
+        <v>835.3471215411929</v>
       </c>
       <c r="X46" t="n">
-        <v>903.3718743647057</v>
+        <v>706.0290052170189</v>
       </c>
       <c r="Y46" t="n">
-        <v>781.250729795019</v>
+        <v>583.9078606473322</v>
       </c>
     </row>
   </sheetData>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>157.235310843063</v>
+        <v>157.2353108430626</v>
       </c>
       <c r="K8" t="n">
-        <v>184.4039433729006</v>
+        <v>184.4039433728999</v>
       </c>
       <c r="L8" t="n">
-        <v>191.4948909389602</v>
+        <v>191.4948909389594</v>
       </c>
       <c r="M8" t="n">
-        <v>181.0856325333065</v>
+        <v>181.0856325333056</v>
       </c>
       <c r="N8" t="n">
-        <v>179.3553748830238</v>
+        <v>179.3553748830229</v>
       </c>
       <c r="O8" t="n">
-        <v>182.8301554383988</v>
+        <v>182.8301554383979</v>
       </c>
       <c r="P8" t="n">
-        <v>190.8908035586583</v>
+        <v>190.8908035586576</v>
       </c>
       <c r="Q8" t="n">
-        <v>192.0103836266123</v>
+        <v>192.0103836266117</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>112.6562001875973</v>
+        <v>112.6562001875971</v>
       </c>
       <c r="K9" t="n">
-        <v>113.6031223372532</v>
+        <v>113.6031223372527</v>
       </c>
       <c r="L9" t="n">
-        <v>105.9629718672272</v>
+        <v>105.9629718672266</v>
       </c>
       <c r="M9" t="n">
-        <v>104.1013981253591</v>
+        <v>104.1013981253584</v>
       </c>
       <c r="N9" t="n">
-        <v>92.30246558677635</v>
+        <v>92.30246558677564</v>
       </c>
       <c r="O9" t="n">
-        <v>106.8829608359734</v>
+        <v>106.8829608359727</v>
       </c>
       <c r="P9" t="n">
-        <v>105.3113487798322</v>
+        <v>105.3113487798317</v>
       </c>
       <c r="Q9" t="n">
-        <v>120.8212784615457</v>
+        <v>120.8212784615453</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>116.1755252564657</v>
+        <v>116.1755252564653</v>
       </c>
       <c r="M10" t="n">
-        <v>119.1996074085226</v>
+        <v>119.1996074085223</v>
       </c>
       <c r="N10" t="n">
-        <v>108.4284123140777</v>
+        <v>108.4284123140773</v>
       </c>
       <c r="O10" t="n">
-        <v>120.6694600530924</v>
+        <v>120.669460053092</v>
       </c>
       <c r="P10" t="n">
-        <v>122.5080856662704</v>
+        <v>122.5080856662701</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>-9.481304630298837e-13</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>-4.405364961712621e-13</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>127.4994347185304</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9656,10 +9656,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>105.0013903333783</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>124.5185911550055</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9881,7 +9881,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -9890,13 +9890,13 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>105.7385611944689</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10112,22 +10112,22 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>21.74982042514699</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>274.8351763665421</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10349,7 +10349,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>233.4533865158185</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10364,13 +10364,13 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>277.220684154414</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>1.392663762089796e-12</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10686,7 +10686,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>-4.695133171139787e-13</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10838,10 +10838,10 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -10896,7 +10896,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -11060,7 +11060,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -23033,7 +23033,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.02219619719372</v>
+        <v>15.02219619719371</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>338.352745183881</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23267,7 +23267,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>379.955899154585</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>2.251980991618382</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23315,13 +23315,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>300.8321118830084</v>
+        <v>300.8321118830085</v>
       </c>
       <c r="W11" t="n">
-        <v>322.3208221302865</v>
+        <v>322.3208221302866</v>
       </c>
       <c r="X11" t="n">
-        <v>43.85513496232076</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>152.9118335948108</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>140.3266745115014</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,10 +23425,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>118.5009014358047</v>
+        <v>118.5009014358048</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>105.9495920584832</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>62.01200608292092</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>66.38759680005919</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>191.6645067649684</v>
       </c>
     </row>
     <row r="14">
@@ -23492,19 +23492,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>108.2856582068614</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>327.7628950335566</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>376.7658072429334</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>14.65678318579955</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,10 +23543,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.26761520104941</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>176.9978235524937</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23555,7 +23555,7 @@
         <v>300.8321118830085</v>
       </c>
       <c r="W14" t="n">
-        <v>322.3208221302866</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23656,10 +23656,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>121.6953264310859</v>
+        <v>121.695326431086</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>119.5138160594428</v>
       </c>
       <c r="F16" t="n">
         <v>118.5009014358048</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>117.8348683271944</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>58.08390406517225</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>62.01200608292092</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>118.4169624158448</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>79.19514304898709</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23780,16 +23780,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>35.29247858245681</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>43.90266446653099</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>253.8569752644159</v>
+        <v>253.856975264416</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23975,16 +23975,16 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>0.07135577741162251</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>332.9807625359925</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>203.0294313795021</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24020,7 +24020,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>130.0226869339011</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1222638.493771191</v>
+        <v>1222638.49377119</v>
       </c>
     </row>
     <row r="9">
@@ -26320,19 +26320,19 @@
         <v>184342.2007063379</v>
       </c>
       <c r="E2" t="n">
-        <v>164146.5002036193</v>
+        <v>164146.5002036194</v>
       </c>
       <c r="F2" t="n">
-        <v>164146.5002036193</v>
+        <v>164146.5002036192</v>
       </c>
       <c r="G2" t="n">
-        <v>178769.4347804708</v>
+        <v>178769.434780471</v>
       </c>
       <c r="H2" t="n">
-        <v>178769.4347804709</v>
+        <v>178769.434780471</v>
       </c>
       <c r="I2" t="n">
-        <v>184734.3982194638</v>
+        <v>184734.398219464</v>
       </c>
       <c r="J2" t="n">
         <v>184734.3982194639</v>
@@ -26369,31 +26369,31 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>59764.55367552315</v>
+        <v>59764.55367552424</v>
       </c>
       <c r="E3" t="n">
-        <v>1089238.972163632</v>
+        <v>1089238.972163631</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>37580.10929487392</v>
+        <v>37580.10929487403</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>22821.46782983372</v>
       </c>
       <c r="J3" t="n">
-        <v>25409.43302179692</v>
+        <v>25409.43302179689</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.1092948741</v>
+        <v>37580.10929487404</v>
       </c>
       <c r="M3" t="n">
         <v>202168.0999927243</v>
@@ -26421,34 +26421,34 @@
         <v>441649.2499958205</v>
       </c>
       <c r="D4" t="n">
-        <v>421637.9387995425</v>
+        <v>421637.9387995421</v>
       </c>
       <c r="E4" t="n">
-        <v>38804.2740136252</v>
+        <v>38804.27401362509</v>
       </c>
       <c r="F4" t="n">
-        <v>38804.27401362511</v>
+        <v>38804.27401362509</v>
       </c>
       <c r="G4" t="n">
-        <v>75832.43437506739</v>
+        <v>75832.43437506733</v>
       </c>
       <c r="H4" t="n">
-        <v>75832.43437506736</v>
+        <v>75832.4343750673</v>
       </c>
       <c r="I4" t="n">
-        <v>88045.16093451309</v>
+        <v>88045.16093451306</v>
       </c>
       <c r="J4" t="n">
+        <v>84858.15940173085</v>
+      </c>
+      <c r="K4" t="n">
         <v>84858.15940173084</v>
-      </c>
-      <c r="K4" t="n">
-        <v>84858.15940173085</v>
       </c>
       <c r="L4" t="n">
         <v>84858.15940173084</v>
       </c>
       <c r="M4" t="n">
-        <v>90964.01098815707</v>
+        <v>90964.01098815705</v>
       </c>
       <c r="N4" t="n">
         <v>90964.01098815707</v>
@@ -26457,7 +26457,7 @@
         <v>90964.01098815707</v>
       </c>
       <c r="P4" t="n">
-        <v>90964.0109881571</v>
+        <v>90964.01098815708</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>35148.90543186637</v>
+        <v>35148.9054318664</v>
       </c>
       <c r="E5" t="n">
         <v>76569.49036482644</v>
@@ -26482,13 +26482,13 @@
         <v>76569.49036482643</v>
       </c>
       <c r="G5" t="n">
-        <v>80518.64312521488</v>
+        <v>80518.64312521489</v>
       </c>
       <c r="H5" t="n">
         <v>80518.64312521489</v>
       </c>
       <c r="I5" t="n">
-        <v>85736.52830184212</v>
+        <v>85736.52830184213</v>
       </c>
       <c r="J5" t="n">
         <v>89377.94167480612</v>
@@ -26500,7 +26500,7 @@
         <v>89377.94167480612</v>
       </c>
       <c r="M5" t="n">
-        <v>82518.59730624987</v>
+        <v>82518.59730624985</v>
       </c>
       <c r="N5" t="n">
         <v>82518.59730624985</v>
@@ -26509,7 +26509,7 @@
         <v>82518.59730624985</v>
       </c>
       <c r="P5" t="n">
-        <v>82518.59730624987</v>
+        <v>82518.59730624985</v>
       </c>
     </row>
     <row r="6">
@@ -26519,37 +26519,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-290939.6737844867</v>
+        <v>-290944.0873623549</v>
       </c>
       <c r="C6" t="n">
-        <v>-290939.6737844869</v>
+        <v>-290944.087362355</v>
       </c>
       <c r="D6" t="n">
-        <v>-332209.1972005941</v>
+        <v>-332213.5549507407</v>
       </c>
       <c r="E6" t="n">
-        <v>-1040466.236338464</v>
+        <v>-1040694.990760861</v>
       </c>
       <c r="F6" t="n">
-        <v>48772.73582516785</v>
+        <v>48543.98140276963</v>
       </c>
       <c r="G6" t="n">
-        <v>-15161.75201468539</v>
+        <v>-15228.02938622963</v>
       </c>
       <c r="H6" t="n">
-        <v>22418.35728018846</v>
+        <v>22352.07990864441</v>
       </c>
       <c r="I6" t="n">
-        <v>-11868.75884672512</v>
+        <v>-11868.75884672487</v>
       </c>
       <c r="J6" t="n">
-        <v>-14911.13587887</v>
+        <v>-14911.13587886999</v>
       </c>
       <c r="K6" t="n">
-        <v>10498.29714292694</v>
+        <v>10498.29714292689</v>
       </c>
       <c r="L6" t="n">
-        <v>-27081.81215194729</v>
+        <v>-27081.8121519472</v>
       </c>
       <c r="M6" t="n">
         <v>-190916.3100676673</v>
@@ -26558,10 +26558,10 @@
         <v>11251.78992505696</v>
       </c>
       <c r="O6" t="n">
-        <v>11251.78992505699</v>
+        <v>11251.78992505702</v>
       </c>
       <c r="P6" t="n">
-        <v>11251.78992505692</v>
+        <v>11251.78992505695</v>
       </c>
     </row>
   </sheetData>
@@ -26692,22 +26692,22 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92014658712649</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="F2" t="n">
-        <v>26.92014658712641</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="G2" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="H2" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="I2" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K2" t="n">
         <v>46.97513661859254</v>
@@ -26716,16 +26716,16 @@
         <v>46.97513661859254</v>
       </c>
       <c r="M2" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="N2" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="O2" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="P2" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
     </row>
     <row r="3">
@@ -26741,10 +26741,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790685</v>
+        <v>69.78465283790811</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="F3" t="n">
         <v>1089.776700593298</v>
@@ -26799,34 +26799,34 @@
         <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="I4" t="n">
-        <v>917.22193528103</v>
+        <v>917.2219352810303</v>
       </c>
       <c r="J4" t="n">
         <v>1014.336461208615</v>
       </c>
       <c r="K4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="L4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="P4" t="n">
         <v>831.4014554022929</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>26.9201465871265</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M2" t="n">
-        <v>50.70958360951234</v>
+        <v>50.70958360951235</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26963,19 +26963,19 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790685</v>
+        <v>69.78465283790811</v>
       </c>
       <c r="E3" t="n">
-        <v>1019.992047755391</v>
+        <v>1019.99204775539</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>85.82047987873739</v>
       </c>
       <c r="J4" t="n">
-        <v>97.11452592758451</v>
+        <v>97.1145259275844</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>648.4664495959714</v>
+        <v>648.4664495959713</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>26.9201465871265</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>336.6017083434004</v>
       </c>
       <c r="I8" t="n">
-        <v>199.6603204104726</v>
+        <v>199.6603204104724</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>132.2465643780174</v>
+        <v>132.246564378017</v>
       </c>
       <c r="S8" t="n">
-        <v>202.6272343036572</v>
+        <v>202.6272343036571</v>
       </c>
       <c r="T8" t="n">
-        <v>221.8677799448432</v>
+        <v>221.8677799448431</v>
       </c>
       <c r="U8" t="n">
         <v>251.3232096024012</v>
@@ -27947,10 +27947,10 @@
         <v>137.193414325031</v>
       </c>
       <c r="H9" t="n">
-        <v>110.7857668256562</v>
+        <v>110.7857668256561</v>
       </c>
       <c r="I9" t="n">
-        <v>84.22861846672103</v>
+        <v>84.22861846672095</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,10 +27977,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>90.83829126987511</v>
+        <v>90.83829126987494</v>
       </c>
       <c r="S9" t="n">
-        <v>168.895076719229</v>
+        <v>168.8950767192289</v>
       </c>
       <c r="T9" t="n">
         <v>199.5597089216326</v>
@@ -28029,13 +28029,13 @@
         <v>161.1083300406285</v>
       </c>
       <c r="I10" t="n">
-        <v>151.6660875241797</v>
+        <v>151.6660875241796</v>
       </c>
       <c r="J10" t="n">
-        <v>84.46220888519079</v>
+        <v>84.46220888519062</v>
       </c>
       <c r="K10" t="n">
-        <v>7.649035050990243</v>
+        <v>7.649035050989976</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>75.62456067317045</v>
+        <v>75.62456067317027</v>
       </c>
       <c r="R10" t="n">
-        <v>171.6351144437877</v>
+        <v>171.6351144437876</v>
       </c>
       <c r="S10" t="n">
-        <v>221.8235295207384</v>
+        <v>221.8235295207383</v>
       </c>
       <c r="T10" t="n">
         <v>227.4079043982189</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.92014658712649</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="C11" t="n">
-        <v>26.92014658712649</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="D11" t="n">
-        <v>26.92014658712649</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="E11" t="n">
-        <v>26.92014658712649</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="F11" t="n">
-        <v>26.92014658712649</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="G11" t="n">
-        <v>26.92014658712649</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="H11" t="n">
-        <v>26.92014658712649</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="I11" t="n">
-        <v>26.92014658712649</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>26.92014658712649</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="T11" t="n">
-        <v>26.92014658712649</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="U11" t="n">
-        <v>26.92014658712649</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="V11" t="n">
-        <v>26.92014658712649</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="W11" t="n">
-        <v>26.92014658712649</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="X11" t="n">
-        <v>26.92014658712649</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="Y11" t="n">
-        <v>26.92014658712649</v>
+        <v>26.9201465871264</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26.92014658712649</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="C13" t="n">
-        <v>26.92014658712649</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="D13" t="n">
-        <v>26.92014658712649</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="E13" t="n">
-        <v>26.92014658712649</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="F13" t="n">
-        <v>26.92014658712649</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="G13" t="n">
-        <v>26.92014658712649</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="H13" t="n">
-        <v>26.92014658712649</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="I13" t="n">
-        <v>26.92014658712649</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="J13" t="n">
-        <v>26.92014658712649</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="K13" t="n">
-        <v>26.92014658712649</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="L13" t="n">
-        <v>26.92014658712649</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="M13" t="n">
-        <v>26.92014658712649</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="N13" t="n">
-        <v>26.92014658712649</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="O13" t="n">
-        <v>26.92014658712649</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="P13" t="n">
-        <v>26.92014658712649</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="Q13" t="n">
-        <v>26.92014658712649</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="R13" t="n">
-        <v>26.92014658712649</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="S13" t="n">
-        <v>26.92014658712649</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="T13" t="n">
-        <v>26.92014658712649</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="U13" t="n">
-        <v>26.92014658712649</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="V13" t="n">
-        <v>26.92014658712649</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="W13" t="n">
-        <v>26.92014658712649</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="X13" t="n">
-        <v>26.92014658712649</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="Y13" t="n">
-        <v>26.92014658712649</v>
+        <v>26.9201465871264</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>26.92014658712641</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="C14" t="n">
-        <v>26.92014658712641</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="D14" t="n">
-        <v>26.92014658712641</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="E14" t="n">
-        <v>26.92014658712641</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="F14" t="n">
-        <v>26.92014658712641</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="G14" t="n">
-        <v>26.92014658712641</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="H14" t="n">
-        <v>26.92014658712641</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="I14" t="n">
-        <v>26.92014658712641</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>26.92014658712641</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="T14" t="n">
-        <v>26.92014658712641</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="U14" t="n">
-        <v>26.92014658712641</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="V14" t="n">
-        <v>26.92014658712641</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="W14" t="n">
-        <v>26.92014658712641</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="X14" t="n">
-        <v>26.92014658712641</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="Y14" t="n">
-        <v>26.92014658712641</v>
+        <v>26.9201465871264</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26.92014658712641</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="C16" t="n">
-        <v>26.92014658712641</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="D16" t="n">
-        <v>26.92014658712641</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="E16" t="n">
-        <v>26.92014658712641</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="F16" t="n">
-        <v>26.92014658712641</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="G16" t="n">
-        <v>26.92014658712641</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="H16" t="n">
-        <v>26.92014658712641</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="I16" t="n">
-        <v>26.92014658712641</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="J16" t="n">
-        <v>26.92014658712641</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="K16" t="n">
-        <v>26.92014658712641</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="L16" t="n">
-        <v>26.92014658712641</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="M16" t="n">
-        <v>26.92014658712641</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="N16" t="n">
-        <v>26.92014658712641</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="O16" t="n">
-        <v>26.92014658712641</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="P16" t="n">
-        <v>26.92014658712641</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="Q16" t="n">
-        <v>26.92014658712641</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="R16" t="n">
-        <v>26.92014658712641</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="S16" t="n">
-        <v>26.92014658712641</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="T16" t="n">
-        <v>26.92014658712641</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="U16" t="n">
-        <v>26.92014658712641</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="V16" t="n">
-        <v>26.92014658712641</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="W16" t="n">
-        <v>26.92014658712641</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="X16" t="n">
-        <v>26.92014658712641</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="Y16" t="n">
-        <v>26.92014658712641</v>
+        <v>26.9201465871264</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="C17" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="D17" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="E17" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="F17" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="G17" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="H17" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="T17" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="U17" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="V17" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="W17" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="X17" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="Y17" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571894</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="C19" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="D19" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="E19" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="F19" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="G19" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="H19" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="I19" t="n">
-        <v>11.49558901075632</v>
+        <v>11.49558901075721</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="S19" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="T19" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="U19" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="V19" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="W19" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="X19" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="Y19" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571894</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="C20" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="D20" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="E20" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="F20" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="G20" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="H20" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="T20" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="U20" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="V20" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="W20" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="X20" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="Y20" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571894</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="C22" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="D22" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="E22" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="F22" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="G22" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="H22" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="I22" t="n">
-        <v>11.49558901075585</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="S22" t="n">
-        <v>73.89528320571902</v>
+        <v>11.49558901075687</v>
       </c>
       <c r="T22" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="U22" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="V22" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="W22" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="X22" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="Y22" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571894</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="C23" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="D23" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="E23" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="F23" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="G23" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="H23" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="T23" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="U23" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="V23" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="W23" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="X23" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="Y23" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571894</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="C25" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="D25" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="E25" t="n">
-        <v>11.49558901075591</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="F25" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="G25" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="H25" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="I25" t="n">
-        <v>73.89528320571902</v>
+        <v>11.49558901075724</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="S25" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="T25" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="U25" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="V25" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="W25" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="X25" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571894</v>
       </c>
       <c r="Y25" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571894</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859298</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="29">
@@ -29712,7 +29712,7 @@
         <v>46.97513661859254</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859303</v>
       </c>
       <c r="R31" t="n">
         <v>46.97513661859254</v>
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
     <row r="36">
@@ -30141,25 +30141,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="C37" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="D37" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="E37" t="n">
-        <v>97.68472022810488</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>97.68472022810488</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>97.68472022810488</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>97.68472022810488</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983809</v>
@@ -30189,28 +30189,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="T37" t="n">
-        <v>97.68472022810488</v>
+        <v>55.47778196371192</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="X37" t="n">
-        <v>46.72521440565427</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
     <row r="39">
@@ -30378,25 +30378,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="C40" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="D40" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="E40" t="n">
-        <v>97.68472022810488</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>97.68472022810488</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H40" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983809</v>
@@ -30432,22 +30432,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>46.72521440565393</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="V40" t="n">
-        <v>46.72521440565453</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="W40" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="X40" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="C41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="D41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="E41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="F41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="G41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="H41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="T41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="U41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="V41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="W41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="X41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810491</v>
       </c>
     </row>
     <row r="42">
@@ -30615,19 +30615,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="C43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="E43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="F43" t="n">
-        <v>97.68472022810489</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -30636,7 +30636,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -30666,25 +30666,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>55.477781963712</v>
+        <v>54.1454821454445</v>
       </c>
       <c r="T43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="V43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="W43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="X43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810491</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810491</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="C44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="D44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="E44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="F44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="G44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="H44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="T44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="U44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="V44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="W44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="X44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
     </row>
     <row r="45">
@@ -30852,25 +30852,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="C46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="G46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="H46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="I46" t="n">
         <v>96.35242040983809</v>
@@ -30900,28 +30900,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>55.47778196371132</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>97.68472022810495</v>
+        <v>46.72521440565373</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="W46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="X46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2805413179413339</v>
+        <v>0.2805413179413389</v>
       </c>
       <c r="H8" t="n">
-        <v>2.873093772366686</v>
+        <v>2.873093772366738</v>
       </c>
       <c r="I8" t="n">
-        <v>10.81556915993328</v>
+        <v>10.81556915993348</v>
       </c>
       <c r="J8" t="n">
-        <v>23.81059368362331</v>
+        <v>23.81059368362374</v>
       </c>
       <c r="K8" t="n">
-        <v>35.68590767207997</v>
+        <v>35.68590767208062</v>
       </c>
       <c r="L8" t="n">
-        <v>44.27152403102708</v>
+        <v>44.27152403102788</v>
       </c>
       <c r="M8" t="n">
-        <v>49.26060069396627</v>
+        <v>49.26060069396716</v>
       </c>
       <c r="N8" t="n">
-        <v>50.05768871356709</v>
+        <v>50.057688713568</v>
       </c>
       <c r="O8" t="n">
-        <v>47.26805598328795</v>
+        <v>47.2680559832888</v>
       </c>
       <c r="P8" t="n">
-        <v>40.34219219661126</v>
+        <v>40.342192196612</v>
       </c>
       <c r="Q8" t="n">
-        <v>30.29530624783724</v>
+        <v>30.29530624783779</v>
       </c>
       <c r="R8" t="n">
-        <v>17.62255356313233</v>
+        <v>17.62255356313265</v>
       </c>
       <c r="S8" t="n">
-        <v>6.392835282588152</v>
+        <v>6.392835282588267</v>
       </c>
       <c r="T8" t="n">
-        <v>1.228069619288189</v>
+        <v>1.228069619288212</v>
       </c>
       <c r="U8" t="n">
-        <v>0.0224433054353067</v>
+        <v>0.02244330543530711</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1501028381796487</v>
+        <v>0.1501028381796514</v>
       </c>
       <c r="H9" t="n">
-        <v>1.449677410840292</v>
+        <v>1.449677410840318</v>
       </c>
       <c r="I9" t="n">
-        <v>5.168014384694046</v>
+        <v>5.168014384694139</v>
       </c>
       <c r="J9" t="n">
-        <v>14.18142647906935</v>
+        <v>14.18142647906961</v>
       </c>
       <c r="K9" t="n">
-        <v>24.23831663710582</v>
+        <v>24.23831663710626</v>
       </c>
       <c r="L9" t="n">
-        <v>32.59140791264697</v>
+        <v>32.59140791264756</v>
       </c>
       <c r="M9" t="n">
-        <v>38.03263579665923</v>
+        <v>38.03263579665992</v>
       </c>
       <c r="N9" t="n">
-        <v>39.03924649655696</v>
+        <v>39.03924649655767</v>
       </c>
       <c r="O9" t="n">
-        <v>35.71328360847107</v>
+        <v>35.71328360847171</v>
       </c>
       <c r="P9" t="n">
-        <v>28.66305863449801</v>
+        <v>28.66305863449853</v>
       </c>
       <c r="Q9" t="n">
-        <v>19.16049562447586</v>
+        <v>19.16049562447621</v>
       </c>
       <c r="R9" t="n">
-        <v>9.319542882768017</v>
+        <v>9.319542882768186</v>
       </c>
       <c r="S9" t="n">
-        <v>2.788094384608824</v>
+        <v>2.788094384608874</v>
       </c>
       <c r="T9" t="n">
-        <v>0.6050197731890223</v>
+        <v>0.6050197731890333</v>
       </c>
       <c r="U9" t="n">
-        <v>0.009875186722345313</v>
+        <v>0.009875186722345492</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1258411772486845</v>
+        <v>0.1258411772486867</v>
       </c>
       <c r="H10" t="n">
-        <v>1.118842466811032</v>
+        <v>1.118842466811052</v>
       </c>
       <c r="I10" t="n">
-        <v>3.784387403078621</v>
+        <v>3.78438740307869</v>
       </c>
       <c r="J10" t="n">
-        <v>8.896971231481992</v>
+        <v>8.896971231482153</v>
       </c>
       <c r="K10" t="n">
-        <v>14.62045677489261</v>
+        <v>14.62045677489288</v>
       </c>
       <c r="L10" t="n">
-        <v>18.7091510247726</v>
+        <v>18.70915102477294</v>
       </c>
       <c r="M10" t="n">
-        <v>19.72617653908242</v>
+        <v>19.72617653908278</v>
       </c>
       <c r="N10" t="n">
-        <v>19.25713215115552</v>
+        <v>19.25713215115587</v>
       </c>
       <c r="O10" t="n">
-        <v>17.78707839875042</v>
+        <v>17.78707839875075</v>
       </c>
       <c r="P10" t="n">
-        <v>15.21991838287725</v>
+        <v>15.21991838287753</v>
       </c>
       <c r="Q10" t="n">
-        <v>10.53748257852393</v>
+        <v>10.53748257852413</v>
       </c>
       <c r="R10" t="n">
-        <v>5.658276933381757</v>
+        <v>5.658276933381859</v>
       </c>
       <c r="S10" t="n">
-        <v>2.193068516233891</v>
+        <v>2.193068516233931</v>
       </c>
       <c r="T10" t="n">
-        <v>0.5376850300625607</v>
+        <v>0.5376850300625705</v>
       </c>
       <c r="U10" t="n">
-        <v>0.006864064213564615</v>
+        <v>0.006864064213564739</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H11" t="n">
         <v>44.86703772844668</v>
@@ -31759,40 +31759,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T11" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q12" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31911,43 +31911,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L13" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U13" t="n">
         <v>0.1071911508780295</v>
@@ -32093,7 +32093,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
         <v>299.2156706987487</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,10 +32309,10 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
@@ -32321,28 +32321,28 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32397,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32415,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32792,7 +32792,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
         <v>593.9283018233475</v>
@@ -32801,7 +32801,7 @@
         <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970245</v>
       </c>
       <c r="P24" t="n">
         <v>447.6103584002927</v>
@@ -33281,7 +33281,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33509,7 +33509,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
         <v>557.708647897025</v>
@@ -33518,7 +33518,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33746,7 +33746,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
         <v>557.708647897025</v>
@@ -33992,7 +33992,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34229,7 +34229,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N11" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q12" t="n">
         <v>159.2338966127272</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>72.49856320019272</v>
+        <v>72.49856320019265</v>
       </c>
       <c r="K13" t="n">
-        <v>232.9678061314461</v>
+        <v>232.967806131446</v>
       </c>
       <c r="L13" t="n">
         <v>346.6775187573246</v>
@@ -35580,13 +35580,13 @@
         <v>371.7770927546666</v>
       </c>
       <c r="O13" t="n">
-        <v>329.2732768097663</v>
+        <v>329.2732768097662</v>
       </c>
       <c r="P13" t="n">
         <v>261.8772177322369</v>
       </c>
       <c r="Q13" t="n">
-        <v>105.3143851250202</v>
+        <v>105.3143851250201</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35741,7 +35741,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
         <v>159.2338966127272</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>72.49856320019263</v>
+        <v>72.49856320019262</v>
       </c>
       <c r="K16" t="n">
         <v>232.967806131446</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
@@ -35969,19 +35969,19 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36054,13 +36054,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36142,7 +36142,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222434</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>318.286435687243</v>
       </c>
       <c r="K23" t="n">
         <v>337.1912865554005</v>
@@ -36376,10 +36376,10 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>355.7956951370978</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,7 +36440,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
         <v>451.7942679013292</v>
@@ -36449,7 +36449,7 @@
         <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525802</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>315.3055921237181</v>
       </c>
       <c r="K26" t="n">
         <v>337.1912865554005</v>
@@ -36601,7 +36601,7 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
         <v>552.3018354129115</v>
@@ -36610,13 +36610,13 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
-        <v>356.5328659981884</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36753,7 +36753,7 @@
         <v>92.55355323165875</v>
       </c>
       <c r="K28" t="n">
-        <v>253.0227961629126</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L28" t="n">
         <v>366.7325087887907</v>
@@ -36768,7 +36768,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P28" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q28" t="n">
         <v>125.3693751564862</v>
@@ -36832,22 +36832,22 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>358.9411069805475</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>827.1370117794536</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
         <v>250.7943048037195</v>
@@ -36929,7 +36929,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37008,7 +37008,7 @@
         <v>281.932207763703</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564867</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,7 +37069,7 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>570.644673071219</v>
       </c>
       <c r="L32" t="n">
         <v>455.5901143923322</v>
@@ -37084,13 +37084,13 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>675.9826703737858</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37157,7 +37157,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
         <v>415.1124034525806</v>
@@ -37166,7 +37166,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37327,7 +37327,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222617</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37394,7 +37394,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
         <v>415.1124034525806</v>
@@ -37558,10 +37558,10 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193724</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037199</v>
       </c>
       <c r="R38" t="n">
         <v>59.61319854222478</v>
@@ -37640,7 +37640,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37780,7 +37780,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554008</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
         <v>455.5901143923322</v>
@@ -37877,7 +37877,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
